--- a/src/main/resources/reports/employeeReport.xlsx
+++ b/src/main/resources/reports/employeeReport.xlsx
@@ -546,7 +546,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">1940-01-26</t>
+            <t xml:space="preserve">26-01-1940</t>
           </r>
         </is>
       </c>
@@ -573,11 +573,11 @@
         <v>75</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9" t="inlineStr"/>
       <c r="J4" s="8" t="n">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="K4" s="9" t="inlineStr"/>
       <c r="L4" s="1" t="inlineStr"/>
@@ -737,7 +737,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">1943-01-26</t>
+            <t xml:space="preserve">26-01-1943</t>
           </r>
         </is>
       </c>
@@ -764,11 +764,11 @@
         <v>72</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="9" t="inlineStr"/>
       <c r="J7" s="8" t="n">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="K7" s="9" t="inlineStr"/>
       <c r="L7" s="1" t="inlineStr"/>
@@ -928,7 +928,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
@@ -939,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
             <rPr>
               <rFont val="Angsana New"/>
             </rPr>
-            <t xml:space="preserve">1956-01-26</t>
+            <t xml:space="preserve">26-01-1956</t>
           </r>
         </is>
       </c>
@@ -955,11 +955,11 @@
         <v>59</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="9" t="inlineStr"/>
       <c r="J10" s="8" t="n">
-        <v>-9</v>
+        <v>23</v>
       </c>
       <c r="K10" s="9" t="inlineStr"/>
       <c r="L10" s="1" t="inlineStr"/>
